--- a/Lab_x2/phsx316labx2.xlsx
+++ b/Lab_x2/phsx316labx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Lab X2</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Volts - Laser</t>
+  </si>
+  <si>
+    <t>Linest:</t>
   </si>
 </sst>
 </file>
@@ -161,6 +164,4422 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mercury -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Blue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404157880"/>
+        <c:axId val="404162192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404157880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404162192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404162192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404157880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mercury -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Green</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404165328"/>
+        <c:axId val="404168856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404165328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404168856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404168856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404165328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incandescent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Red</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453230656"/>
+        <c:axId val="453229480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453230656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453229480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="453229480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453230656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Laser</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Diffused</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453229872"/>
+        <c:axId val="397930896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453229872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397930896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397930896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453229872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -450,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,13 +5152,23 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <f>LINEST(C3:C8,B3:B8,0,TRUE)</f>
+        <v>3.6108597285067871E-2</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5">
+        <f>LINEST(E3:E8,B3:B8,0,TRUE)</f>
+        <v>3.0542986425339362E-2</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1053,13 +5482,23 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5">
+        <f>LINEST(D3:D8,B3:B8,0,TRUE)</f>
+        <v>2.0520361990950222E-2</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5">
+        <f>LINEST(F3:F8,B3:B8,0,TRUE)</f>
+        <v>2.1696832579185515E-2</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1577,5 +6016,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab_x2/phsx316labx2.xlsx
+++ b/Lab_x2/phsx316labx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Lab X2</t>
   </si>
@@ -39,12 +39,33 @@
   <si>
     <t>Linest:</t>
   </si>
+  <si>
+    <t>Volts^2</t>
+  </si>
+  <si>
+    <t>I am going with x^2 because the linest is the smallest, meaning that the equation holds better.</t>
+  </si>
+  <si>
+    <t>Y-Intercept:</t>
+  </si>
+  <si>
+    <t>1/Wavelength</t>
+  </si>
+  <si>
+    <t>Stopping Voltage</t>
+  </si>
+  <si>
+    <t>Wavelength (nm)</t>
+  </si>
+  <si>
+    <t>Slope:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +81,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,11 +171,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -147,6 +184,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404157880"/>
-        <c:axId val="404162192"/>
+        <c:axId val="375869240"/>
+        <c:axId val="375868456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404157880"/>
+        <c:axId val="375869240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,12 +743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404162192"/>
+        <c:crossAx val="375868456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404162192"/>
+        <c:axId val="375868456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404157880"/>
+        <c:crossAx val="375869240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1030,11 +1079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404165328"/>
-        <c:axId val="404168856"/>
+        <c:axId val="375873160"/>
+        <c:axId val="375873552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404165328"/>
+        <c:axId val="375873160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,12 +1199,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404168856"/>
+        <c:crossAx val="375873552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404168856"/>
+        <c:axId val="375873552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404165328"/>
+        <c:crossAx val="375873160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1399,8 +1448,89 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1452,10 +1582,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
@@ -1487,11 +1617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453230656"/>
-        <c:axId val="453229480"/>
+        <c:axId val="396146376"/>
+        <c:axId val="396150296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453230656"/>
+        <c:axId val="396146376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,12 +1737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453229480"/>
+        <c:crossAx val="396150296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453229480"/>
+        <c:axId val="396150296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453230656"/>
+        <c:crossAx val="396146376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1944,11 +2074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="453229872"/>
-        <c:axId val="397930896"/>
+        <c:axId val="377713472"/>
+        <c:axId val="377713864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="453229872"/>
+        <c:axId val="377713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397930896"/>
+        <c:crossAx val="377713864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397930896"/>
+        <c:axId val="377713864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2312,2261 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453229872"/>
+        <c:crossAx val="377713472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mercury</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Blue V^2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.9290000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4224999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9856E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18232899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40704400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72249999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392890392"/>
+        <c:axId val="396151864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392890392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396151864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396151864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392890392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mercury - Green V^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7209999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2996000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7889000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0176000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11764900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18404099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394082088"/>
+        <c:axId val="394083656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394082088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394083656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394083656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394082088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incandescent - Red V^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.6040000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8496000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6864000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.294399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53875600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82810000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396146768"/>
+        <c:axId val="396152648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396146768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396152648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396152648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396146768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Laser - Diffused</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6009999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0608999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6244E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6655999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11424400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90060099999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394091888"/>
+        <c:axId val="394086008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394091888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current(nA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394086008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394086008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volts^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394091888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stopping Voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Inverse Wavelength</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.60746332328767116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16119207397260277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68762428493150685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53206911232876719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2935779816513763E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8315018315018315E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4492753623188406E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5797788309636651E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="407964440"/>
+        <c:axId val="407969536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="407964440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Stopping Voltage(V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407969536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="407969536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>1/Wavelength (nm^-1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407964440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2391,6 +4775,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3940,6 +6524,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4577,6 +9741,164 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4867,10 +10189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,1140 +10201,1350 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11">
+        <f>C3^2</f>
+        <v>5.9290000000000002E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:K8" si="0">D3^2</f>
+        <v>3.7209999999999999E-3</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6040000000000014E-3</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6009999999999996E-3</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="13">
+        <v>436</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.60746332328767116</v>
+      </c>
+      <c r="O3" s="16">
+        <f>1/M3</f>
+        <v>2.2935779816513763E-3</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.185</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.114</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="11">
+        <f t="shared" ref="H4:H8" si="1">C4^2</f>
+        <v>3.4224999999999998E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2996000000000001E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8496000000000002E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0608999999999999E-2</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="14">
+        <v>546</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.16119207397260277</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" ref="O4:O6" si="2">1/M4</f>
+        <v>1.8315018315018315E-3</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.316</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.192</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="11">
+        <f t="shared" si="1"/>
+        <v>9.9856E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7889000000000004E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6864000000000001E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6244E-2</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="14">
+        <v>690</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.68762428493150685</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4492753623188406E-3</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.224</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0.216</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18232899999999999</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>5.0176000000000005E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>8.294399999999999E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6655999999999996E-2</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="14">
+        <v>633</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.53206911232876719</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5797788309636651E-3</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.63800000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.34300000000000003</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.40704400000000002</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11764900000000002</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53875600000000001</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11424400000000001</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.85</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0.91</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0.94899999999999995</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18404099999999998</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.82810000000000006</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.90060099999999987</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2">
+        <f>LINEST(O3:O6,N3:N6,0,TRUE)</f>
+        <v>3.0632874297093749E-3</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="3">
+        <f>INDEX(LINEST(O3:O6,N3:N6),1)</f>
+        <v>-1.8846159408681388E-4</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>LINEST(C3:C8,B3:B8,0,TRUE)</f>
         <v>3.6108597285067871E-2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f>LINEST(E3:E8,B3:B8,0,TRUE)</f>
         <v>3.0542986425339362E-2</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2">
+        <f>INDEX(LINEST(O3:O6,N3:N6),2)</f>
+        <v>1.8822153474629128E-3</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <f>LINEST(D3:D8,B3:B8,0,TRUE)</f>
         <v>2.0520361990950222E-2</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="5" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <f>LINEST(F3:F8,B3:B8,0,TRUE)</f>
         <v>2.1696832579185515E-2</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <f>LINEST(H3:H8,B3:B8,0,TRUE)</f>
+        <v>1.4471176470588232E-2</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <f>INDEX(LINEST(H3:H8,B3:B8),2)</f>
+        <v>0.60746332328767116</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4">
+        <f>LINEST(J3:J8,B3:B8,0,TRUE)</f>
+        <v>1.2228868778280539E-2</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <f>INDEX(LINEST(J3:J8,B3:B8),2)</f>
+        <v>0.68762428493150685</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4">
+        <f>LINEST(I3:I8,B3:B8,0,TRUE)</f>
+        <v>4.2016063348416285E-3</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <f>INDEX(LINEST(I3:I8,B3:B8),2)</f>
+        <v>0.16119207397260277</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="4">
+        <f>LINEST(K3:K8,B3:B8,0,TRUE)</f>
+        <v>7.1676877828054271E-3</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <f>INDEX(LINEST(K3:K8,B3:B8),2)</f>
+        <v>0.53206911232876719</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B74:K75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Lab_x2/phsx316labx2.xlsx
+++ b/Lab_x2/phsx316labx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Lab X2</t>
   </si>
@@ -60,6 +60,66 @@
   <si>
     <t>Slope:</t>
   </si>
+  <si>
+    <t>Error Propagation</t>
+  </si>
+  <si>
+    <t>Exp 1</t>
+  </si>
+  <si>
+    <t>Exp 2</t>
+  </si>
+  <si>
+    <t>Exp 3</t>
+  </si>
+  <si>
+    <t>Exp 4</t>
+  </si>
+  <si>
+    <t>Part 5</t>
+  </si>
+  <si>
+    <t>std(volts)</t>
+  </si>
+  <si>
+    <t>std(work)</t>
+  </si>
+  <si>
+    <t>std(wavelength)</t>
+  </si>
+  <si>
+    <t>dh/dv</t>
+  </si>
+  <si>
+    <t>dh/dlambda</t>
+  </si>
+  <si>
+    <t>dh/dphi</t>
+  </si>
+  <si>
+    <t>avg (volts)</t>
+  </si>
+  <si>
+    <t>avg (work)</t>
+  </si>
+  <si>
+    <t>avg (wavelength)</t>
+  </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>Plank's Constant</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>TINV</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -171,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +262,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4304,16 +4374,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2935779816513763E-3</c:v>
+                  <c:v>2293577.981651376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8315018315018315E-3</c:v>
+                  <c:v>1831501.8315018313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4492753623188406E-3</c:v>
+                  <c:v>1449275.3623188403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5797788309636651E-3</c:v>
+                  <c:v>1579778.8309636652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10189,10 +10259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10210,9 +10280,15 @@
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10232,7 +10308,7 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -10276,9 +10352,16 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -10316,20 +10399,52 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="13">
-        <v>436</v>
+        <f>436*10^-9</f>
+        <v>4.3600000000000004E-7</v>
       </c>
       <c r="N3" s="15">
         <v>0.60746332328767116</v>
       </c>
       <c r="O3" s="16">
         <f>1/M3</f>
-        <v>2.2935779816513763E-3</v>
+        <v>2293577.981651376</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -10367,20 +10482,54 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="14">
-        <v>546</v>
+        <f>546*10^-9</f>
+        <v>5.4600000000000005E-7</v>
       </c>
       <c r="N4" s="15">
         <v>0.16119207397260277</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" ref="O4:O6" si="2">1/M4</f>
-        <v>1.8315018315018315E-3</v>
+        <v>1831501.8315018313</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <f>AVERAGE(C3:C8)</f>
+        <v>0.41550000000000004</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="13">
+        <f>436*10^-9</f>
+        <v>4.3600000000000004E-7</v>
+      </c>
+      <c r="U4">
+        <f>STDEV(H3:H8)</f>
+        <v>0.27596567985802145</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4">
+        <f>M3*(1.602*10^-19)/(3*10^8)</f>
+        <v>2.3282400000000003E-34</v>
+      </c>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19">
+        <f>10*10^-9</f>
+        <v>1E-8</v>
+      </c>
+      <c r="AA4">
+        <f>SQRT((X4*R4)^2+(T4*Z4)^2)</f>
+        <v>4.3600000000000006E-15</v>
+      </c>
+      <c r="AB4">
+        <f>R4*M3*(1.602*10^-19)/(3*10^8)</f>
+        <v>9.6738372000000018E-35</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -10418,20 +10567,54 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="14">
-        <v>690</v>
+        <f>690*10^-9</f>
+        <v>6.9000000000000006E-7</v>
       </c>
       <c r="N5" s="15">
         <v>0.68762428493150685</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" si="2"/>
-        <v>1.4492753623188406E-3</v>
+        <v>1449275.3623188403</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="2">
+        <f>AVERAGE(D3:D8)</f>
+        <v>0.223</v>
+      </c>
+      <c r="S5" s="19"/>
+      <c r="T5" s="14">
+        <f>546*10^-9</f>
+        <v>5.4600000000000005E-7</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U7" si="3">STDEV(H4:H9)</f>
+        <v>0.28014322654438739</v>
+      </c>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5">
+        <f t="shared" ref="X5:X7" si="4">M4*(1.602*10^-19)/(3*10^8)</f>
+        <v>2.9156400000000004E-34</v>
+      </c>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19">
+        <f t="shared" ref="Z5:Z8" si="5">10*10^-9</f>
+        <v>1E-8</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA7" si="6">SQRT((X5*R5)^2)</f>
+        <v>6.5018772000000015E-35</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB7" si="7">R5*M4*(1.602*10^-19)/(3*10^8)</f>
+        <v>6.5018772000000015E-35</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -10469,20 +10652,54 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="14">
-        <v>633</v>
+        <f>633*10^-9</f>
+        <v>6.3300000000000002E-7</v>
       </c>
       <c r="N6" s="15">
         <v>0.53206911232876719</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="2"/>
-        <v>1.5797788309636651E-3</v>
+        <v>1579778.8309636652</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="2">
+        <f>AVERAGE(E3:E8)</f>
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="14">
+        <f>690*10^-9</f>
+        <v>6.9000000000000006E-7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>0.28098457714228708</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>3.6846000000000001E-34</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19">
+        <f t="shared" si="5"/>
+        <v>1E-8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="6"/>
+        <v>1.4480478E-34</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>1.4480478E-34</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -10523,10 +10740,43 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2">
+        <f>AVERAGE(F3:F8)</f>
+        <v>0.30316666666666664</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="14">
+        <f>633*10^-9</f>
+        <v>6.3300000000000002E-7</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="3"/>
+        <v>0.30074775479583071</v>
+      </c>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7">
+        <f t="shared" si="4"/>
+        <v>3.3802200000000002E-34</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19">
+        <f t="shared" si="5"/>
+        <v>1E-8</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>1.02477003E-34</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="7"/>
+        <v>1.02477003E-34</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -10567,10 +10817,19 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8">
+        <f>P9*(6.02*10^-19)/(3*10^8)</f>
+        <v>-3.7817959880087303E-31</v>
+      </c>
+      <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -10588,19 +10847,25 @@
       </c>
       <c r="N9" s="2">
         <f>LINEST(O3:O6,N3:N6,0,TRUE)</f>
-        <v>3.0632874297093749E-3</v>
+        <v>3063287.4297093749</v>
       </c>
       <c r="O9" s="17" t="s">
         <v>14</v>
       </c>
       <c r="P9" s="3">
-        <f>INDEX(LINEST(O3:O6,N3:N6),1)</f>
-        <v>-1.8846159408681388E-4</v>
+        <f>INDEX(LINEST(O3:O6,N3:N6),1)/(10^9)</f>
+        <v>-1.884615940868138E-4</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
+      <c r="X9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -10628,14 +10893,21 @@
       </c>
       <c r="N10" s="2">
         <f>INDEX(LINEST(O3:O6,N3:N6),2)</f>
-        <v>1.8822153474629128E-3</v>
+        <v>1882215.3474629126</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
+      <c r="X10">
+        <f>TINV(0.05,9)</f>
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="Y10">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10655,7 +10927,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -10675,7 +10947,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -10695,7 +10967,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -10715,7 +10987,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -10735,7 +11007,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -11542,9 +11814,10 @@
       <c r="K75" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B74:K75"/>
+    <mergeCell ref="R2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Lab_x2/phsx316labx2.xlsx
+++ b/Lab_x2/phsx316labx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Lab X2</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>ERRORS</t>
   </si>
 </sst>
 </file>
@@ -10261,8 +10264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10521,12 +10524,12 @@
         <v>1E-8</v>
       </c>
       <c r="AA4">
-        <f>SQRT((X4*R4)^2+(T4*Z4)^2)</f>
-        <v>4.3600000000000006E-15</v>
+        <f>SQRT((X4*R4)^2)</f>
+        <v>9.6738372000000018E-35</v>
       </c>
       <c r="AB4">
-        <f>R4*M3*(1.602*10^-19)/(3*10^8)</f>
-        <v>9.6738372000000018E-35</v>
+        <f>(R4 + C3)*M3*(1.602*10^-19)/(3*10^8)</f>
+        <v>1.1466582000000002E-34</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -10610,8 +10613,8 @@
         <v>6.5018772000000015E-35</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB7" si="7">R5*M4*(1.602*10^-19)/(3*10^8)</f>
-        <v>6.5018772000000015E-35</v>
+        <f>(R5+D3)*M4*(1.602*10^-19)/(3*10^8)</f>
+        <v>8.2804176000000007E-35</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -10695,8 +10698,8 @@
         <v>1.4480478E-34</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="7"/>
-        <v>1.4480478E-34</v>
+        <f>(R6+E3)*M5*(1.602*10^-19)/(3*10^8)</f>
+        <v>1.8091386E-34</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -10772,8 +10775,8 @@
         <v>1.02477003E-34</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="7"/>
-        <v>1.02477003E-34</v>
+        <f>(R7+F3)*M6*(1.602*10^-19)/(3*10^8)</f>
+        <v>1.1971612499999999E-34</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -10864,6 +10867,9 @@
       <c r="Y9" t="s">
         <v>34</v>
       </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -10905,6 +10911,10 @@
       </c>
       <c r="Y10">
         <v>0.75</v>
+      </c>
+      <c r="AA10">
+        <f>AA4*Y10</f>
+        <v>7.2553779000000014E-35</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -10926,6 +10936,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
+      <c r="AA11">
+        <f>AA5*Y10</f>
+        <v>4.8764079000000011E-35</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -10946,6 +10960,10 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
+      <c r="AA12">
+        <f>AA6*Y10</f>
+        <v>1.0860358499999999E-34</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -10966,6 +10984,10 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
+      <c r="AA13">
+        <f>AA7*Y10</f>
+        <v>7.6857752249999991E-35</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>

--- a/Lab_x2/phsx316labx2.xlsx
+++ b/Lab_x2/phsx316labx2.xlsx
@@ -2776,7 +2776,8 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3092,7 +3093,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -3108,6 +3109,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3167,6 +3169,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3274,7 +3277,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3290,6 +3293,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3365,7 +3369,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3381,6 +3385,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4722,15 +4727,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>588240</xdr:colOff>
+      <xdr:colOff>535172</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>25163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>259022</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>161963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5167,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,8 +5771,8 @@
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <f>LINEST(O3:O6,P3:P6,0,1)</f>
-        <v>1822874.4308516458</v>
+        <f>LINEST(P3:P6,O3:O6,0,1)</f>
+        <v>4.7918662293286583E-7</v>
       </c>
       <c r="O9" s="19" t="s">
         <v>30</v>
@@ -5820,7 +5825,10 @@
         <f>INDEX(LINEST(P3:P6,O3:O6),2)</f>
         <v>1.3147292234212897</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="17">
+        <f>LINEST(P3:P6,O3:O6,1,1)</f>
+        <v>-2.3277686610106451E-7</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="X10">
